--- a/bus_202/data/group_1_4.xlsx
+++ b/bus_202/data/group_1_4.xlsx
@@ -1,30 +1,169 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgrah\Box\Justin\Teaching\2025 Winter BUS 202\Group Project\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77F773F4-77E5-4286-849C-FF4D794D52CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67934E64-5040-5A41-B20A-8C044B8ACD8F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="39">
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Arizona Cardinals</t>
+  </si>
+  <si>
+    <t>Atlanta Falcons</t>
+  </si>
+  <si>
+    <t>Baltimore Ravens</t>
+  </si>
+  <si>
+    <t>Buffalo Bills</t>
+  </si>
+  <si>
+    <t>Carolina Panthers</t>
+  </si>
+  <si>
+    <t>Chicago Bears</t>
+  </si>
+  <si>
+    <t>Cincinnati Bengals</t>
+  </si>
+  <si>
+    <t>Cleveland Browns</t>
+  </si>
+  <si>
+    <t>Dallas Cowboys</t>
+  </si>
+  <si>
+    <t>Denver Broncos</t>
+  </si>
+  <si>
+    <t>Detroit Lions</t>
+  </si>
+  <si>
+    <t>Green Bay Packers</t>
+  </si>
+  <si>
+    <t>Houston Texans</t>
+  </si>
+  <si>
+    <t>Indianapolis Colts</t>
+  </si>
+  <si>
+    <t>Jacksonville Jaguars</t>
+  </si>
+  <si>
+    <t>Kansas City Chiefs</t>
+  </si>
+  <si>
+    <t>Las Vegas Raiders</t>
+  </si>
+  <si>
+    <t>Los Angeles Chargers</t>
+  </si>
+  <si>
+    <t>Los Angeles Rams</t>
+  </si>
+  <si>
+    <t>Miami Dolphins</t>
+  </si>
+  <si>
+    <t>Minnesota Vikings</t>
+  </si>
+  <si>
+    <t>New England Patriots</t>
+  </si>
+  <si>
+    <t>New Orleans Saints</t>
+  </si>
+  <si>
+    <t>New York Giants</t>
+  </si>
+  <si>
+    <t>New York Jets</t>
+  </si>
+  <si>
+    <t>Philadelphia Eagles</t>
+  </si>
+  <si>
+    <t>Pittsburgh Steelers</t>
+  </si>
+  <si>
+    <t>San Francisco 49ers</t>
+  </si>
+  <si>
+    <t>Seattle Seahawks</t>
+  </si>
+  <si>
+    <t>Tampa Bay Buccaneers</t>
+  </si>
+  <si>
+    <t>Tennessee Titans</t>
+  </si>
+  <si>
+    <t>Washington Commanders</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>defense percent</t>
+  </si>
+  <si>
+    <t>qb percent</t>
+  </si>
+  <si>
+    <t>coach salary</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -79,39 +218,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -144,9 +283,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -179,6 +335,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -240,13 +413,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -255,6 +421,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -319,24 +492,3270 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE2AAAA-1D0C-4CDD-BC16-58D0302106DB}">
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>28.12</v>
+      </c>
+      <c r="E2">
+        <v>5.5</v>
+      </c>
+      <c r="F2">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2020</v>
+      </c>
+      <c r="C3">
+        <v>0.25</v>
+      </c>
+      <c r="D3">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+      <c r="C4">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D4">
+        <v>48.74</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2020</v>
+      </c>
+      <c r="C5">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D5">
+        <v>47.63</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2020</v>
+      </c>
+      <c r="C6">
+        <v>0.312</v>
+      </c>
+      <c r="D6">
+        <v>18.87</v>
+      </c>
+      <c r="E6">
+        <v>8.86</v>
+      </c>
+      <c r="F6">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>43.27</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2020</v>
+      </c>
+      <c r="C8">
+        <v>0.25</v>
+      </c>
+      <c r="D8">
+        <v>22.58</v>
+      </c>
+      <c r="E8">
+        <v>4.5</v>
+      </c>
+      <c r="F8">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2020</v>
+      </c>
+      <c r="C9">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D9">
+        <v>31.08</v>
+      </c>
+      <c r="E9">
+        <v>3.5</v>
+      </c>
+      <c r="F9">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2020</v>
+      </c>
+      <c r="C10">
+        <v>0.375</v>
+      </c>
+      <c r="D10">
+        <v>28.59</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2020</v>
+      </c>
+      <c r="C11">
+        <v>0.312</v>
+      </c>
+      <c r="D11">
+        <v>24.22</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2020</v>
+      </c>
+      <c r="C12">
+        <v>0.312</v>
+      </c>
+      <c r="D12">
+        <v>26.42</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2020</v>
+      </c>
+      <c r="C13">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D13">
+        <v>39.119999999999997</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2020</v>
+      </c>
+      <c r="C14">
+        <v>0.25</v>
+      </c>
+      <c r="D14">
+        <v>25.33</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D15">
+        <v>31.67</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>12.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2020</v>
+      </c>
+      <c r="C16">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D16">
+        <v>22.17</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2020</v>
+      </c>
+      <c r="C17">
+        <v>0.875</v>
+      </c>
+      <c r="D17">
+        <v>43.46</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2020</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+      <c r="D18">
+        <v>28.9</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2020</v>
+      </c>
+      <c r="C19">
+        <v>0.438</v>
+      </c>
+      <c r="D19">
+        <v>32.19</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2020</v>
+      </c>
+      <c r="C20">
+        <v>0.625</v>
+      </c>
+      <c r="D20">
+        <v>27.85</v>
+      </c>
+      <c r="E20">
+        <v>8.5</v>
+      </c>
+      <c r="F20">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2020</v>
+      </c>
+      <c r="C21">
+        <v>0.625</v>
+      </c>
+      <c r="D21">
+        <v>45.13</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2020</v>
+      </c>
+      <c r="C22">
+        <v>0.438</v>
+      </c>
+      <c r="D22">
+        <v>24.88</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>10.43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2020</v>
+      </c>
+      <c r="C23">
+        <v>0.438</v>
+      </c>
+      <c r="D23">
+        <v>25.59</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2020</v>
+      </c>
+      <c r="C24">
+        <v>0.75</v>
+      </c>
+      <c r="D24">
+        <v>32.65</v>
+      </c>
+      <c r="E24">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F24">
+        <v>11.93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2020</v>
+      </c>
+      <c r="C25">
+        <v>0.375</v>
+      </c>
+      <c r="D25">
+        <v>37.94</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2020</v>
+      </c>
+      <c r="C26">
+        <v>0.125</v>
+      </c>
+      <c r="D26">
+        <v>12.61</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2020</v>
+      </c>
+      <c r="C27">
+        <v>0.25</v>
+      </c>
+      <c r="D27">
+        <v>26.28</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2020</v>
+      </c>
+      <c r="C28">
+        <v>0.75</v>
+      </c>
+      <c r="D28">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2020</v>
+      </c>
+      <c r="C29">
+        <v>0.375</v>
+      </c>
+      <c r="D29">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="E29">
+        <v>9.5</v>
+      </c>
+      <c r="F29">
+        <v>15.64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2020</v>
+      </c>
+      <c r="C30">
+        <v>0.75</v>
+      </c>
+      <c r="D30">
+        <v>22.89</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2020</v>
+      </c>
+      <c r="C31">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D31">
+        <v>39.72</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>12.61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2020</v>
+      </c>
+      <c r="C32">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D32">
+        <v>25.65</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2020</v>
+      </c>
+      <c r="C33">
+        <v>0.438</v>
+      </c>
+      <c r="D33">
+        <v>28.3</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>2021</v>
+      </c>
+      <c r="C34">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D34">
+        <v>42.67</v>
+      </c>
+      <c r="E34">
+        <v>5.5</v>
+      </c>
+      <c r="F34">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>2021</v>
+      </c>
+      <c r="C35">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D35">
+        <v>33.94</v>
+      </c>
+      <c r="E35">
+        <v>6.2</v>
+      </c>
+      <c r="F35">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>2021</v>
+      </c>
+      <c r="C36">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D36">
+        <v>33.01</v>
+      </c>
+      <c r="E36">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>2021</v>
+      </c>
+      <c r="C37">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D37">
+        <v>45.54</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D38">
+        <v>28.07</v>
+      </c>
+      <c r="E38">
+        <v>8.86</v>
+      </c>
+      <c r="F38">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>2021</v>
+      </c>
+      <c r="C39">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D39">
+        <v>32.71</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>2021</v>
+      </c>
+      <c r="C40">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D40">
+        <v>42.86</v>
+      </c>
+      <c r="E40">
+        <v>4.5</v>
+      </c>
+      <c r="F40">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>2021</v>
+      </c>
+      <c r="C41">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D41">
+        <v>24.57</v>
+      </c>
+      <c r="E41">
+        <v>3.5</v>
+      </c>
+      <c r="F41">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>2021</v>
+      </c>
+      <c r="C42">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D42">
+        <v>32.22</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>2021</v>
+      </c>
+      <c r="C43">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D43">
+        <v>29.75</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>2021</v>
+      </c>
+      <c r="C44">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="D44">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>2021</v>
+      </c>
+      <c r="C45">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D45">
+        <v>38.26</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>2021</v>
+      </c>
+      <c r="C46">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D46">
+        <v>27.7</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>2021</v>
+      </c>
+      <c r="C47">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D47">
+        <v>38.69</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>11.67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>2021</v>
+      </c>
+      <c r="C48">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D48">
+        <v>33.72</v>
+      </c>
+      <c r="E48">
+        <v>12</v>
+      </c>
+      <c r="F48">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>2021</v>
+      </c>
+      <c r="C49">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D49">
+        <v>49.25</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50">
+        <v>2021</v>
+      </c>
+      <c r="C50">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D50">
+        <v>42.72</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>2021</v>
+      </c>
+      <c r="C51">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D51">
+        <v>30.11</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52">
+        <v>2021</v>
+      </c>
+      <c r="C52">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D52">
+        <v>13.24</v>
+      </c>
+      <c r="E52">
+        <v>8.5</v>
+      </c>
+      <c r="F52">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53">
+        <v>2021</v>
+      </c>
+      <c r="C53">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D53">
+        <v>40.54</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54">
+        <v>2021</v>
+      </c>
+      <c r="C54">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D54">
+        <v>26.28</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>17.079999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>2021</v>
+      </c>
+      <c r="C55">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D55">
+        <v>35.96</v>
+      </c>
+      <c r="E55">
+        <v>12</v>
+      </c>
+      <c r="F55">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56">
+        <v>2021</v>
+      </c>
+      <c r="C56">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D56">
+        <v>31.05</v>
+      </c>
+      <c r="E56">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F56">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57">
+        <v>2021</v>
+      </c>
+      <c r="C57">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D57">
+        <v>27.91</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58">
+        <v>2021</v>
+      </c>
+      <c r="C58">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D58">
+        <v>20.55</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59">
+        <v>2021</v>
+      </c>
+      <c r="C59">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D59">
+        <v>26.77</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60">
+        <v>2021</v>
+      </c>
+      <c r="C60">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="D60">
+        <v>33.36</v>
+      </c>
+      <c r="E60">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61">
+        <v>2021</v>
+      </c>
+      <c r="C61">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D61">
+        <v>29.7</v>
+      </c>
+      <c r="E61">
+        <v>9.5</v>
+      </c>
+      <c r="F61">
+        <v>17.53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62">
+        <v>2021</v>
+      </c>
+      <c r="C62">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D62">
+        <v>28.52</v>
+      </c>
+      <c r="E62">
+        <v>11</v>
+      </c>
+      <c r="F62">
+        <v>14.47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63">
+        <v>2021</v>
+      </c>
+      <c r="C63">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D63">
+        <v>36.090000000000003</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64">
+        <v>2021</v>
+      </c>
+      <c r="C64">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D64">
+        <v>28.95</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65">
+        <v>2021</v>
+      </c>
+      <c r="C65">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D65">
+        <v>26.85</v>
+      </c>
+      <c r="E65">
+        <v>7</v>
+      </c>
+      <c r="F65">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>2022</v>
+      </c>
+      <c r="C66">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D66">
+        <v>23.43</v>
+      </c>
+      <c r="E66">
+        <v>7.5</v>
+      </c>
+      <c r="F66">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>2022</v>
+      </c>
+      <c r="C67">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D67">
+        <v>19.63</v>
+      </c>
+      <c r="E67">
+        <v>6.2</v>
+      </c>
+      <c r="F67">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>2022</v>
+      </c>
+      <c r="C68">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D68">
+        <v>32.9</v>
+      </c>
+      <c r="E68">
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>2022</v>
+      </c>
+      <c r="C69">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="D69">
+        <v>39.92</v>
+      </c>
+      <c r="E69">
+        <v>8</v>
+      </c>
+      <c r="F69">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>2022</v>
+      </c>
+      <c r="C70">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D70">
+        <v>26.64</v>
+      </c>
+      <c r="E70">
+        <v>8.86</v>
+      </c>
+      <c r="F70">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <v>2022</v>
+      </c>
+      <c r="C71">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D71">
+        <v>17.7</v>
+      </c>
+      <c r="E71">
+        <v>4.5</v>
+      </c>
+      <c r="F71">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>2022</v>
+      </c>
+      <c r="C72">
+        <v>0.75</v>
+      </c>
+      <c r="D72">
+        <v>43.37</v>
+      </c>
+      <c r="E72">
+        <v>4.5</v>
+      </c>
+      <c r="F72">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>2022</v>
+      </c>
+      <c r="C73">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D73">
+        <v>28.52</v>
+      </c>
+      <c r="E73">
+        <v>3.5</v>
+      </c>
+      <c r="F73">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>2022</v>
+      </c>
+      <c r="C74">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D74">
+        <v>23.32</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75">
+        <v>2022</v>
+      </c>
+      <c r="C75">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D75">
+        <v>23.4</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76">
+        <v>2022</v>
+      </c>
+      <c r="C76">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D76">
+        <v>27.42</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77">
+        <v>2022</v>
+      </c>
+      <c r="C77">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D77">
+        <v>30.19</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78">
+        <v>2022</v>
+      </c>
+      <c r="C78">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="D78">
+        <v>24.02</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+      <c r="F78">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79">
+        <v>2022</v>
+      </c>
+      <c r="C79">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D79">
+        <v>29.57</v>
+      </c>
+      <c r="E79">
+        <v>9</v>
+      </c>
+      <c r="F79">
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80">
+        <v>2022</v>
+      </c>
+      <c r="C80">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D80">
+        <v>33.43</v>
+      </c>
+      <c r="E80">
+        <v>8.5</v>
+      </c>
+      <c r="F80">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81">
+        <v>2022</v>
+      </c>
+      <c r="C81">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D81">
+        <v>36.36</v>
+      </c>
+      <c r="E81">
+        <v>8</v>
+      </c>
+      <c r="F81">
+        <v>17.190000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82">
+        <v>2022</v>
+      </c>
+      <c r="C82">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D82">
+        <v>38.11</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83">
+        <v>2022</v>
+      </c>
+      <c r="C83">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D83">
+        <v>40.29</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84">
+        <v>2022</v>
+      </c>
+      <c r="C84">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D84">
+        <v>13.31</v>
+      </c>
+      <c r="E84">
+        <v>14</v>
+      </c>
+      <c r="F84">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85">
+        <v>2022</v>
+      </c>
+      <c r="C85">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D85">
+        <v>30.77</v>
+      </c>
+      <c r="E85">
+        <v>3.5</v>
+      </c>
+      <c r="F85">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86">
+        <v>2022</v>
+      </c>
+      <c r="C86">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D86">
+        <v>33.26</v>
+      </c>
+      <c r="E86">
+        <v>6</v>
+      </c>
+      <c r="F86">
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87">
+        <v>2022</v>
+      </c>
+      <c r="C87">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D87">
+        <v>36.39</v>
+      </c>
+      <c r="E87">
+        <v>12</v>
+      </c>
+      <c r="F87">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88">
+        <v>2022</v>
+      </c>
+      <c r="C88">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D88">
+        <v>32.17</v>
+      </c>
+      <c r="E88">
+        <v>3.5</v>
+      </c>
+      <c r="F88">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89">
+        <v>2022</v>
+      </c>
+      <c r="C89">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="D89">
+        <v>26.71</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90">
+        <v>2022</v>
+      </c>
+      <c r="C90">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D90">
+        <v>38.67</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91">
+        <v>2022</v>
+      </c>
+      <c r="C91">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D91">
+        <v>34.22</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="F91">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92">
+        <v>2022</v>
+      </c>
+      <c r="C92">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D92">
+        <v>44.24</v>
+      </c>
+      <c r="E92">
+        <v>12.5</v>
+      </c>
+      <c r="F92">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93">
+        <v>2022</v>
+      </c>
+      <c r="C93">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D93">
+        <v>24.36</v>
+      </c>
+      <c r="E93">
+        <v>9.5</v>
+      </c>
+      <c r="F93">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94">
+        <v>2022</v>
+      </c>
+      <c r="C94">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D94">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E94">
+        <v>15</v>
+      </c>
+      <c r="F94">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <v>2022</v>
+      </c>
+      <c r="C95">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D95">
+        <v>33.35</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96">
+        <v>2022</v>
+      </c>
+      <c r="C96">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D96">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="E96">
+        <v>7</v>
+      </c>
+      <c r="F96">
+        <v>18.54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97">
+        <v>2022</v>
+      </c>
+      <c r="C97">
+        <v>0.5</v>
+      </c>
+      <c r="D97">
+        <v>27.04</v>
+      </c>
+      <c r="E97">
+        <v>8.5</v>
+      </c>
+      <c r="F97">
+        <v>13.59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>2023</v>
+      </c>
+      <c r="C98">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D98">
+        <v>22.07</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>2023</v>
+      </c>
+      <c r="C99">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D99">
+        <v>28.51</v>
+      </c>
+      <c r="E99">
+        <v>6.2</v>
+      </c>
+      <c r="F99">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100">
+        <v>2023</v>
+      </c>
+      <c r="C100">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D100">
+        <v>31.1</v>
+      </c>
+      <c r="E100">
+        <v>12</v>
+      </c>
+      <c r="F100">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <v>2023</v>
+      </c>
+      <c r="C101">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D101">
+        <v>34.380000000000003</v>
+      </c>
+      <c r="E101">
+        <v>8</v>
+      </c>
+      <c r="F101">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <v>2023</v>
+      </c>
+      <c r="C102">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D102">
+        <v>33.42</v>
+      </c>
+      <c r="E102">
+        <v>9</v>
+      </c>
+      <c r="F102">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103">
+        <v>2023</v>
+      </c>
+      <c r="C103">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D103">
+        <v>32.19</v>
+      </c>
+      <c r="E103">
+        <v>4.5</v>
+      </c>
+      <c r="F103">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104">
+        <v>2023</v>
+      </c>
+      <c r="C104">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D104">
+        <v>32.1</v>
+      </c>
+      <c r="E104">
+        <v>4.5</v>
+      </c>
+      <c r="F104">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105">
+        <v>2023</v>
+      </c>
+      <c r="C105">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D105">
+        <v>28.45</v>
+      </c>
+      <c r="E105">
+        <v>3.5</v>
+      </c>
+      <c r="F105">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106">
+        <v>2023</v>
+      </c>
+      <c r="C106">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D106">
+        <v>36.4</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107">
+        <v>2023</v>
+      </c>
+      <c r="C107">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D107">
+        <v>29.04</v>
+      </c>
+      <c r="E107">
+        <v>18</v>
+      </c>
+      <c r="F107">
+        <v>9.7899999999999991</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108">
+        <v>2023</v>
+      </c>
+      <c r="C108">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D108">
+        <v>25.87</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108">
+        <v>13.78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109">
+        <v>2023</v>
+      </c>
+      <c r="C109">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D109">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="E109">
+        <v>5</v>
+      </c>
+      <c r="F109">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110">
+        <v>2023</v>
+      </c>
+      <c r="C110">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D110">
+        <v>22.24</v>
+      </c>
+      <c r="E110">
+        <v>8</v>
+      </c>
+      <c r="F110">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111">
+        <v>2023</v>
+      </c>
+      <c r="C111">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D111">
+        <v>27.81</v>
+      </c>
+      <c r="E111">
+        <v>5</v>
+      </c>
+      <c r="F111">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112">
+        <v>2023</v>
+      </c>
+      <c r="C112">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D112">
+        <v>41.57</v>
+      </c>
+      <c r="E112">
+        <v>8.5</v>
+      </c>
+      <c r="F112">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113">
+        <v>2023</v>
+      </c>
+      <c r="C113">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D113">
+        <v>33.9</v>
+      </c>
+      <c r="E113">
+        <v>12</v>
+      </c>
+      <c r="F113">
+        <v>16.52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114">
+        <v>2023</v>
+      </c>
+      <c r="C114">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D114">
+        <v>31.54</v>
+      </c>
+      <c r="E114">
+        <v>10</v>
+      </c>
+      <c r="F114">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115">
+        <v>2023</v>
+      </c>
+      <c r="C115">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D115">
+        <v>21.52</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="F115">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116">
+        <v>2023</v>
+      </c>
+      <c r="C116">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D116">
+        <v>20.63</v>
+      </c>
+      <c r="E116">
+        <v>14</v>
+      </c>
+      <c r="F116">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117">
+        <v>2023</v>
+      </c>
+      <c r="C117">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D117">
+        <v>34.28</v>
+      </c>
+      <c r="E117">
+        <v>3.5</v>
+      </c>
+      <c r="F117">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118">
+        <v>2023</v>
+      </c>
+      <c r="C118">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D118">
+        <v>30.6</v>
+      </c>
+      <c r="E118">
+        <v>6</v>
+      </c>
+      <c r="F118">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>22</v>
+      </c>
+      <c r="B119">
+        <v>2023</v>
+      </c>
+      <c r="C119">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D119">
+        <v>28.43</v>
+      </c>
+      <c r="E119">
+        <v>20</v>
+      </c>
+      <c r="F119">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120">
+        <v>2023</v>
+      </c>
+      <c r="C120">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D120">
+        <v>27.22</v>
+      </c>
+      <c r="E120">
+        <v>3.5</v>
+      </c>
+      <c r="F120">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>24</v>
+      </c>
+      <c r="B121">
+        <v>2023</v>
+      </c>
+      <c r="C121">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D121">
+        <v>25.91</v>
+      </c>
+      <c r="E121">
+        <v>5</v>
+      </c>
+      <c r="F121">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122">
+        <v>2023</v>
+      </c>
+      <c r="C122">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D122">
+        <v>34.22</v>
+      </c>
+      <c r="E122">
+        <v>5</v>
+      </c>
+      <c r="F122">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>26</v>
+      </c>
+      <c r="B123">
+        <v>2023</v>
+      </c>
+      <c r="C123">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D123">
+        <v>30.72</v>
+      </c>
+      <c r="E123">
+        <v>5</v>
+      </c>
+      <c r="F123">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>27</v>
+      </c>
+      <c r="B124">
+        <v>2023</v>
+      </c>
+      <c r="C124">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D124">
+        <v>44.01</v>
+      </c>
+      <c r="E124">
+        <v>12.5</v>
+      </c>
+      <c r="F124">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>28</v>
+      </c>
+      <c r="B125">
+        <v>2023</v>
+      </c>
+      <c r="C125">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D125">
+        <v>29.43</v>
+      </c>
+      <c r="E125">
+        <v>14</v>
+      </c>
+      <c r="F125">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>29</v>
+      </c>
+      <c r="B126">
+        <v>2023</v>
+      </c>
+      <c r="C126">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D126">
+        <v>34.61</v>
+      </c>
+      <c r="E126">
+        <v>15</v>
+      </c>
+      <c r="F126">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127">
+        <v>2023</v>
+      </c>
+      <c r="C127">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D127">
+        <v>28.77</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+      <c r="F127">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128">
+        <v>2023</v>
+      </c>
+      <c r="C128">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D128">
+        <v>16.2</v>
+      </c>
+      <c r="E128">
+        <v>7</v>
+      </c>
+      <c r="F128">
+        <v>16.28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129">
+        <v>2023</v>
+      </c>
+      <c r="C129">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D129">
+        <v>21.66</v>
+      </c>
+      <c r="E129">
+        <v>8.5</v>
+      </c>
+      <c r="F129">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>2024</v>
+      </c>
+      <c r="C130">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D130">
+        <v>28.74</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+      <c r="F130">
+        <v>19.23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131">
+        <v>2024</v>
+      </c>
+      <c r="C131">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D131">
+        <v>37.1</v>
+      </c>
+      <c r="E131">
+        <v>6</v>
+      </c>
+      <c r="F131">
+        <v>9.7899999999999991</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132">
+        <v>2024</v>
+      </c>
+      <c r="C132">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D132">
+        <v>39.64</v>
+      </c>
+      <c r="E132">
+        <v>12</v>
+      </c>
+      <c r="F132">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133">
+        <v>2024</v>
+      </c>
+      <c r="C133">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D133">
+        <v>32.17</v>
+      </c>
+      <c r="E133">
+        <v>8</v>
+      </c>
+      <c r="F133">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134">
+        <v>2024</v>
+      </c>
+      <c r="C134">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D134">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135">
+        <v>2024</v>
+      </c>
+      <c r="C135">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D135">
+        <v>42.74</v>
+      </c>
+      <c r="E135">
+        <v>4.5</v>
+      </c>
+      <c r="F135">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136">
+        <v>2024</v>
+      </c>
+      <c r="C136">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D136">
+        <v>31.94</v>
+      </c>
+      <c r="E136">
+        <v>4.5</v>
+      </c>
+      <c r="F136">
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137">
+        <v>2024</v>
+      </c>
+      <c r="C137">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D137">
+        <v>27.47</v>
+      </c>
+      <c r="E137">
+        <v>3.5</v>
+      </c>
+      <c r="F137">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138">
+        <v>2024</v>
+      </c>
+      <c r="C138">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D138">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="E138">
+        <v>4</v>
+      </c>
+      <c r="F138">
+        <v>17.47</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139">
+        <v>2024</v>
+      </c>
+      <c r="C139">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D139">
+        <v>26.8</v>
+      </c>
+      <c r="E139">
+        <v>18</v>
+      </c>
+      <c r="F139">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140">
+        <v>2024</v>
+      </c>
+      <c r="C140">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="D140">
+        <v>17.16</v>
+      </c>
+      <c r="E140">
+        <v>11</v>
+      </c>
+      <c r="F140">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141">
+        <v>2024</v>
+      </c>
+      <c r="C141">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D141">
+        <v>33.74</v>
+      </c>
+      <c r="E141">
+        <v>5</v>
+      </c>
+      <c r="F141">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142">
+        <v>2024</v>
+      </c>
+      <c r="C142">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D142">
+        <v>28.79</v>
+      </c>
+      <c r="E142">
+        <v>8</v>
+      </c>
+      <c r="F142">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143">
+        <v>2024</v>
+      </c>
+      <c r="C143">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D143">
+        <v>31.29</v>
+      </c>
+      <c r="E143">
+        <v>5</v>
+      </c>
+      <c r="F143">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144">
+        <v>2024</v>
+      </c>
+      <c r="C144">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D144">
+        <v>34.72</v>
+      </c>
+      <c r="E144">
+        <v>8.5</v>
+      </c>
+      <c r="F144">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145">
+        <v>2024</v>
+      </c>
+      <c r="C145">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="D145">
+        <v>28.2</v>
+      </c>
+      <c r="E145">
+        <v>20</v>
+      </c>
+      <c r="F145">
+        <v>14.49</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146">
+        <v>2024</v>
+      </c>
+      <c r="C146">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D146">
+        <v>39.29</v>
+      </c>
+      <c r="E146">
+        <v>15</v>
+      </c>
+      <c r="F146">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>18</v>
+      </c>
+      <c r="B147">
+        <v>2024</v>
+      </c>
+      <c r="C147">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D147">
+        <v>12.83</v>
+      </c>
+      <c r="E147">
+        <v>4</v>
+      </c>
+      <c r="F147">
+        <v>18.079999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148">
+        <v>2024</v>
+      </c>
+      <c r="C148">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D148">
+        <v>18.78</v>
+      </c>
+      <c r="E148">
+        <v>14</v>
+      </c>
+      <c r="F148">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>20</v>
+      </c>
+      <c r="B149">
+        <v>2024</v>
+      </c>
+      <c r="C149">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D149">
+        <v>21.15</v>
+      </c>
+      <c r="E149">
+        <v>3.5</v>
+      </c>
+      <c r="F149">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>21</v>
+      </c>
+      <c r="B150">
+        <v>2024</v>
+      </c>
+      <c r="C150">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D150">
+        <v>28.7</v>
+      </c>
+      <c r="E150">
+        <v>6</v>
+      </c>
+      <c r="F150">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>22</v>
+      </c>
+      <c r="B151">
+        <v>2024</v>
+      </c>
+      <c r="C151">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D151">
+        <v>28.26</v>
+      </c>
+      <c r="E151">
+        <v>20</v>
+      </c>
+      <c r="F151">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152">
+        <v>2024</v>
+      </c>
+      <c r="C152">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D152">
+        <v>28.58</v>
+      </c>
+      <c r="E152">
+        <v>3.5</v>
+      </c>
+      <c r="F152">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153">
+        <v>2024</v>
+      </c>
+      <c r="C153">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D153">
+        <v>19.59</v>
+      </c>
+      <c r="E153">
+        <v>5</v>
+      </c>
+      <c r="F153">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>25</v>
+      </c>
+      <c r="B154">
+        <v>2024</v>
+      </c>
+      <c r="C154">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D154">
+        <v>29.48</v>
+      </c>
+      <c r="E154">
+        <v>5</v>
+      </c>
+      <c r="F154">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>26</v>
+      </c>
+      <c r="B155">
+        <v>2024</v>
+      </c>
+      <c r="C155">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D155">
+        <v>24.76</v>
+      </c>
+      <c r="E155">
+        <v>5</v>
+      </c>
+      <c r="F155">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156">
+        <v>2024</v>
+      </c>
+      <c r="C156">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D156">
+        <v>51.55</v>
+      </c>
+      <c r="E156">
+        <v>16</v>
+      </c>
+      <c r="F156">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157">
+        <v>2024</v>
+      </c>
+      <c r="C157">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D157">
+        <v>26.21</v>
+      </c>
+      <c r="E157">
+        <v>14</v>
+      </c>
+      <c r="F157">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>29</v>
+      </c>
+      <c r="B158">
+        <v>2024</v>
+      </c>
+      <c r="C158">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D158">
+        <v>32.78</v>
+      </c>
+      <c r="E158">
+        <v>9</v>
+      </c>
+      <c r="F158">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>30</v>
+      </c>
+      <c r="B159">
+        <v>2024</v>
+      </c>
+      <c r="C159">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D159">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="E159">
+        <v>3</v>
+      </c>
+      <c r="F159">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>31</v>
+      </c>
+      <c r="B160">
+        <v>2024</v>
+      </c>
+      <c r="C160">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D160">
+        <v>35.35</v>
+      </c>
+      <c r="E160">
+        <v>3</v>
+      </c>
+      <c r="F160">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>32</v>
+      </c>
+      <c r="B161">
+        <v>2024</v>
+      </c>
+      <c r="C161">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D161">
+        <v>38.83</v>
+      </c>
+      <c r="E161">
+        <v>8.5</v>
+      </c>
+      <c r="F161">
+        <v>2.69</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>